--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.002350869166248015</v>
+        <v>0.002051026638567307</v>
       </c>
     </row>
     <row r="3">
@@ -468,20 +468,20 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0008687240312030085</v>
+        <v>0.0007758991820692244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$(F_{s}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle qq \vert qq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0004994269513288221</v>
+        <v>0.0006687511273735803</v>
       </c>
     </row>
     <row r="5">
@@ -494,72 +494,72 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004966832093001849</v>
+        <v>0.0004915977162092867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$(\langle qq \vert qq \rangle)_{0}$</t>
+          <t>$(F_{s}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004783902411048361</v>
+        <v>0.0004241777470906815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle ss \vert ss \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000325915094826241</v>
+        <v>0.0003367895185074564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>h$_{rs}^{1}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0002964719141255726</v>
+        <v>0.0003021202099843411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$(\langle ss \vert ss \rangle)_{0}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002897440537925747</v>
+        <v>0.0002845144050048375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>h$_{rs}^{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002775387523199015</v>
+        <v>0.0002476288774070666</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002024780107924629</v>
+        <v>0.0001961963162868892</v>
       </c>
     </row>
     <row r="12">
@@ -585,423 +585,423 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001933570315518072</v>
+        <v>0.0001761347745074422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001447320146370612</v>
+        <v>0.0001538165504520362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001446232272629284</v>
+        <v>0.0001418359394692289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000143255778572609</v>
+        <v>0.0001412765977549299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001230287624040297</v>
+        <v>0.000138673608412232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>h$_{pr}^{3}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001126280873789702</v>
+        <v>0.0001356689470773089</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001118016793454244</v>
+        <v>0.0001012668469246333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001013178789639572</v>
+        <v>9.965002371437994e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00010058240718004</v>
+        <v>9.643953872072747e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.572876449511613e-05</v>
+        <v>9.575273333657686e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.167897346901533e-05</v>
+        <v>9.049868607211931e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.155690916908293e-05</v>
+        <v>8.950627056219646e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.071371366070765e-05</v>
+        <v>8.85542801822266e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.757079819367414e-05</v>
+        <v>8.844401533988016e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>h$_{pq}^{1}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.3950484924898e-05</v>
+        <v>8.485711580808764e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.027245440338061e-05</v>
+        <v>8.41662596008311e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>typ_2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.00730662906474e-05</v>
+        <v>7.286838481116563e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>typ_0</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.862937477441382e-05</v>
+        <v>6.981798437385872e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.834283609871469e-05</v>
+        <v>6.919686394398016e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.317153764988313e-05</v>
+        <v>6.724079410790197e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.061472866601396e-05</v>
+        <v>6.456234898194598e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.947127290570079e-05</v>
+        <v>6.026366736545474e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.877819652806827e-05</v>
+        <v>5.917562050705573e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.075905751747421e-05</v>
+        <v>5.873125002640179e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.062522928985703e-05</v>
+        <v>5.471053515032886e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.006534233310897e-05</v>
+        <v>5.216722651455957e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.955823760965632e-05</v>
+        <v>4.361257610220661e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\eta_{q})_{0}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.044521256943221e-05</v>
+        <v>4.335422625322935e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>h$_{rs}^{3}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.033535977265057e-05</v>
+        <v>4.254963803739733e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.033225779635547e-05</v>
+        <v>4.208913175453251e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.02749993958193e-05</v>
+        <v>4.138999852791193e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FA$_{qs}$</t>
+          <t>h$_{pr}^{2}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.716355587265801e-05</v>
+        <v>4.091252270889736e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.582970098227291e-05</v>
+        <v>3.898305658683094e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,501 +1014,501 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.55843172606715e-05</v>
+        <v>3.619999753718591e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>FA$_{qs}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.477266074142741e-05</v>
+        <v>3.507213781889909e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.397339539038196e-05</v>
+        <v>3.493542483338518e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.255582141824952e-05</v>
+        <v>3.352091857104038e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.138988225540925e-05</v>
+        <v>3.321178985281682e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.024307017746893e-05</v>
+        <v>3.260916782580424e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.902479235848579e-05</v>
+        <v>3.061272391385363e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.669038365006948e-05</v>
+        <v>2.97346967751335e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>typ_1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.452002697916574e-05</v>
+        <v>2.778260970382036e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.279442927768625e-05</v>
+        <v>2.6315652774654e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.068770438225522e-05</v>
+        <v>2.598869020790802e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(F_{s})_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.05546771981584e-05</v>
+        <v>2.497438933645966e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>h$_{pr}^{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.865576870686261e-05</v>
+        <v>2.492490723224474e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.808843837598354e-05</v>
+        <v>2.464580147498051e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.80172132289417e-05</v>
+        <v>2.365186110503948e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.771123194637842e-05</v>
+        <v>2.343378311707913e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.672854165584378e-05</v>
+        <v>2.209444997715768e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(\eta_{q})_{0}$</t>
+          <t>h$_{pq}^{2}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.436488323851938e-05</v>
+        <v>2.036125828766541e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.393218364764062e-05</v>
+        <v>1.787660240982851e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.328744682643661e-05</v>
+        <v>1.713546656223951e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.303531904508292e-05</v>
+        <v>1.563882137158061e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.275894648492708e-05</v>
+        <v>1.371746426732946e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9.748003548303131e-06</v>
+        <v>1.089998110845299e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.22413623312827e-06</v>
+        <v>9.518971011864442e-06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.923914544244342e-06</v>
+        <v>9.116515519627712e-06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.236182299194097e-06</v>
+        <v>8.229349149676881e-06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.447559058447212e-06</v>
+        <v>6.754619655884995e-06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(F_{s})_{0}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5.960099797532716e-06</v>
+        <v>5.766983238352084e-06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3.626483591364778e-06</v>
+        <v>5.746444764602458e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.473150488250312e-06</v>
+        <v>5.361653384408008e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.183685928589957e-06</v>
+        <v>4.273743694868648e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.950173277137934e-06</v>
+        <v>4.176618212847837e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.732929468527776e-06</v>
+        <v>3.967107788885761e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.241340631482495e-06</v>
+        <v>2.279741097529287e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.923271308410135e-07</v>
+        <v>2.095158802580083e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3.053736084860613e-07</v>
+        <v>1.951000067259092e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2.208324097688335e-07</v>
+        <v>8.120126867850882e-07</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.504552166006598e-07</v>
+        <v>1.056062624988285e-07</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.374601965570805e-07</v>
+        <v>9.293987663549439e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1521,150 +1521,150 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.363603216209684e-07</v>
+        <v>9.18771488048607e-08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.01973499088785e-07</v>
+        <v>6.183418133749021e-08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8.753593130905629e-08</v>
+        <v>6.004418105145348e-08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.3906281309206e-08</v>
+        <v>4.519166668462352e-08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6.656000032763693e-08</v>
+        <v>4.051141186469526e-08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5.915368892764623e-08</v>
+        <v>3.932974599812334e-08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.741005421555609e-08</v>
+        <v>3.316515526620044e-08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.966313062638111e-08</v>
+        <v>3.15596294530196e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{s})_{0}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.944138739660601e-08</v>
+        <v>2.464929402170758e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{s})_{0}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.372457582220597e-08</v>
+        <v>2.126874275927979e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.539100650946811e-08</v>
+        <v>1.822801099914859e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.303482821059013e-08</v>
+        <v>1.261372233648136e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.311667789691148e-08</v>
+        <v>1.432659687854825e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,137 +447,137 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$(F_{q}^{\text{SCF}})_{0}$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.002051026638567307</v>
+        <v>0.001750006404515231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$(F_{q})_{0}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0007758991820692244</v>
+        <v>0.0009858804839981618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$(\langle qq \vert qq \rangle)_{0}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0006687511273735803</v>
+        <v>0.0007129982437099353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$(\eta_{s})_{0}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004915977162092867</v>
+        <v>0.0004341145493509036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$(F_{s}^{\text{SCF}})_{0}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004241777470906815</v>
+        <v>0.0004232275230759916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$(\langle ss \vert ss \rangle)_{0}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003367895185074564</v>
+        <v>0.0004209469175104252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>h$_{rs}^{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003021202099843411</v>
+        <v>0.0003128547823262529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>h$_{rs}^{1}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002845144050048375</v>
+        <v>0.0002997384970610443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002476288774070666</v>
+        <v>0.0002865937838619856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>typ_3</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001961963162868892</v>
+        <v>0.0002571277197483994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -585,38 +585,38 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001761347745074422</v>
+        <v>0.0001721117102153306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001538165504520362</v>
+        <v>0.0001573441708593307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001418359394692289</v>
+        <v>0.0001543793043259627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -624,337 +624,337 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001412765977549299</v>
+        <v>0.0001329034596258047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>h$_{p}^{3}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.000138673608412232</v>
+        <v>0.0001277021395921791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001356689470773089</v>
+        <v>0.0001257530645491128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>h$_{p}^{1}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001012668469246333</v>
+        <v>0.0001163044716435616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.965002371437994e-05</v>
+        <v>0.0001159891434867785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>h$_{pr}^{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.643953872072747e-05</v>
+        <v>0.0001103190706351355</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>typ_0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.575273333657686e-05</v>
+        <v>0.0001103182632278943</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.049868607211931e-05</v>
+        <v>0.0001034192432350008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>h$_{p}^{0}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.950627056219646e-05</v>
+        <v>0.0001025623002785688</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.85542801822266e-05</v>
+        <v>0.0001009440185943736</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.844401533988016e-05</v>
+        <v>9.84381522837363e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.485711580808764e-05</v>
+        <v>9.571241593677456e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.41662596008311e-05</v>
+        <v>8.810342334085724e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.286838481116563e-05</v>
+        <v>8.392748224511989e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.981798437385872e-05</v>
+        <v>8.380668504281043e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.919686394398016e-05</v>
+        <v>7.727837447859377e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>h$_{p}^{2}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.724079410790197e-05</v>
+        <v>7.656685577747472e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.456234898194598e-05</v>
+        <v>7.549466893326047e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>h$_{r}^{3}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.026366736545474e-05</v>
+        <v>6.801044219658478e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.917562050705573e-05</v>
+        <v>6.626174572502556e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.873125002640179e-05</v>
+        <v>6.419330749068947e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.471053515032886e-05</v>
+        <v>6.295895974643562e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.216722651455957e-05</v>
+        <v>6.247610270838877e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.361257610220661e-05</v>
+        <v>5.35604702789688e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\eta_{q})_{0}$</t>
+          <t>h$_{rs}^{3}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.335422625322935e-05</v>
+        <v>5.286080235029401e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.254963803739733e-05</v>
+        <v>5.175219713187518e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -962,103 +962,103 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.208913175453251e-05</v>
+        <v>4.685541073803169e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.138999852791193e-05</v>
+        <v>4.460763177121813e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>typ_2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.091252270889736e-05</v>
+        <v>3.816137234287051e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.898305658683094e-05</v>
+        <v>3.770871854088423e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.619999753718591e-05</v>
+        <v>3.603705143918067e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FA$_{qs}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.507213781889909e-05</v>
+        <v>3.439094033978806e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.493542483338518e-05</v>
+        <v>3.231856747693901e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.352091857104038e-05</v>
+        <v>3.17553222692169e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1066,103 +1066,103 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.321178985281682e-05</v>
+        <v>3.128590588102466e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>h$_{pr}^{2}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.260916782580424e-05</v>
+        <v>3.040192369201896e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.061272391385363e-05</v>
+        <v>3.010772743608183e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>h$_{pq}^{1}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.97346967751335e-05</v>
+        <v>2.98888260391614e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.778260970382036e-05</v>
+        <v>2.984290179068103e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.6315652774654e-05</v>
+        <v>2.752098994963836e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.598869020790802e-05</v>
+        <v>2.574520918181202e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>h$_{r}^{1}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.497438933645966e-05</v>
+        <v>2.526468640440355e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1170,514 +1170,644 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.492490723224474e-05</v>
+        <v>2.513257408399478e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.464580147498051e-05</v>
+        <v>2.407141945013355e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>h$_{pq}^{2}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.365186110503948e-05</v>
+        <v>2.272899180915535e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.343378311707913e-05</v>
+        <v>2.12820302967854e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.209444997715768e-05</v>
+        <v>2.084491597892442e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.036125828766541e-05</v>
+        <v>2.014747728260706e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.787660240982851e-05</v>
+        <v>1.901411410889433e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.713546656223951e-05</v>
+        <v>1.794007233007694e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.563882137158061e-05</v>
+        <v>1.780740236878584e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.371746426732946e-05</v>
+        <v>1.756520723423434e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.089998110845299e-05</v>
+        <v>1.612125797937616e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>h$_{r}^{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.518971011864442e-06</v>
+        <v>1.557329369770261e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>typ_3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9.116515519627712e-06</v>
+        <v>1.457968841455943e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.229349149676881e-06</v>
+        <v>1.423974365102216e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6.754619655884995e-06</v>
+        <v>1.157418325803025e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(F_{s})_{0}$</t>
+          <t>FA$_{qs}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5.766983238352084e-06</v>
+        <v>1.095667340393857e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.746444764602458e-06</v>
+        <v>1.074881652245642e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5.361653384408008e-06</v>
+        <v>1.001770695809361e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.273743694868648e-06</v>
+        <v>9.978070366610122e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.176618212847837e-06</v>
+        <v>9.890188349673145e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3.967107788885761e-06</v>
+        <v>9.410172670118807e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>typ_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.279741097529287e-06</v>
+        <v>8.985892244237583e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.095158802580083e-06</v>
+        <v>8.105469756525128e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.951000067259092e-06</v>
+        <v>7.377622270167794e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8.120126867850882e-07</v>
+        <v>6.718743928668864e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.056062624988285e-07</v>
+        <v>5.678069954089448e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9.293987663549439e-08</v>
+        <v>5.487846236082857e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9.18771488048607e-08</v>
+        <v>2.988946184125206e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6.183418133749021e-08</v>
+        <v>2.610049477976085e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6.004418105145348e-08</v>
+        <v>2.270659635287796e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.519166668462352e-08</v>
+        <v>2.225093037371503e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.051141186469526e-08</v>
+        <v>1.383139589376868e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.932974599812334e-08</v>
+        <v>5.776207327542974e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.316515526620044e-08</v>
+        <v>5.215470987727362e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.15596294530196e-08</v>
+        <v>2.758955526306566e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\omega_{s})_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.464929402170758e-08</v>
+        <v>2.247800010221931e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.126874275927979e-08</v>
+        <v>2.132016442356814e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.822801099914859e-08</v>
+        <v>1.928637917253112e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.261372233648136e-08</v>
+        <v>1.802849010116948e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{q})_{0}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.432659687854825e-09</v>
+        <v>1.550272001655042e-08</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1.293889230691404e-08</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{2}$</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.222013241765122e-08</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{1}$</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1.10737873971803e-08</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{0}$</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>9.200906531809802e-09</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{2}$</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>8.173258915017722e-09</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{1}$</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>8.135102174938371e-09</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{0}$</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5.975757065697869e-09</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{3}$</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3.4434879380529e-09</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{3}$</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2.528009353128534e-09</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>$\omega_{q}$</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.15328332053889e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001750006404515231</v>
+        <v>0.001757944116868135</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0009858804839981618</v>
+        <v>0.0009856342730172767</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0007129982437099353</v>
+        <v>0.0007138407696031805</v>
       </c>
     </row>
     <row r="5">
@@ -494,33 +494,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004341145493509036</v>
+        <v>0.0004358903600317709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004232275230759916</v>
+        <v>0.0004266352703467631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0004209469175104252</v>
+        <v>0.000424886642147671</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003128547823262529</v>
+        <v>0.0003114034770098065</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002997384970610443</v>
+        <v>0.0002975415353387376</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002865937838619856</v>
+        <v>0.0002871981075118193</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002571277197483994</v>
+        <v>0.0002647502187052452</v>
       </c>
     </row>
     <row r="12">
@@ -585,33 +585,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001721117102153306</v>
+        <v>0.0001721274106253779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001573441708593307</v>
+        <v>0.0001578606220173288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001543793043259627</v>
+        <v>0.0001576674733620957</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001329034596258047</v>
+        <v>0.0001356275002653237</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001277021395921791</v>
+        <v>0.0001297714804136964</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001257530645491128</v>
+        <v>0.0001266076853698108</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001163044716435616</v>
+        <v>0.0001185584997731025</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001159891434867785</v>
+        <v>0.000117135613862626</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001103190706351355</v>
+        <v>0.0001097828017201294</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001103182632278943</v>
+        <v>0.0001091140949320803</v>
       </c>
     </row>
     <row r="22">
@@ -715,33 +715,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001034192432350008</v>
+        <v>0.0001024434724165031</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>h$_{p}^{0}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0001025623002785688</v>
+        <v>0.0001005858040760058</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>h$_{p}^{0}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0001009440185943736</v>
+        <v>0.000100161233937453</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.84381522837363e-05</v>
+        <v>9.946716989864862e-05</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.571241593677456e-05</v>
+        <v>9.546237761047241e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.810342334085724e-05</v>
+        <v>8.673841257000019e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.392748224511989e-05</v>
+        <v>8.372396469375091e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,33 +806,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.380668504281043e-05</v>
+        <v>8.185453529342396e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>h$_{p}^{2}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.727837447859377e-05</v>
+        <v>7.739712308713019e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>h$_{p}^{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.656685577747472e-05</v>
+        <v>7.664762938093486e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.549466893326047e-05</v>
+        <v>7.541176727138666e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.801044219658478e-05</v>
+        <v>6.809092841406148e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.626174572502556e-05</v>
+        <v>6.542387700719632e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,33 +884,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.419330749068947e-05</v>
+        <v>6.430736171352043e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.295895974643562e-05</v>
+        <v>6.264028991712328e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.247610270838877e-05</v>
+        <v>6.195294756046203e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.35604702789688e-05</v>
+        <v>5.359909564179834e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.286080235029401e-05</v>
+        <v>5.284712897132471e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.175219713187518e-05</v>
+        <v>5.14076446650088e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.685541073803169e-05</v>
+        <v>4.664974934752032e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.460763177121813e-05</v>
+        <v>4.477948225443494e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.816137234287051e-05</v>
+        <v>3.828233512997084e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.770871854088423e-05</v>
+        <v>3.764075125469025e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.603705143918067e-05</v>
+        <v>3.588479669265956e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1027,20 +1027,20 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.439094033978806e-05</v>
+        <v>3.459072772426318e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>h$_{pq}^{1}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.231856747693901e-05</v>
+        <v>3.294948427920535e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1053,72 +1053,72 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.17553222692169e-05</v>
+        <v>3.247883385238084e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.128590588102466e-05</v>
+        <v>3.238662701100388e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.040192369201896e-05</v>
+        <v>3.151462554410489e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.010772743608183e-05</v>
+        <v>3.038932616803068e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.98888260391614e-05</v>
+        <v>3.00677150424614e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>h$_{pr}^{2}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.984290179068103e-05</v>
+        <v>3.003361729373537e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.752098994963836e-05</v>
+        <v>2.746757403198951e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.574520918181202e-05</v>
+        <v>2.65701330930647e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.526468640440355e-05</v>
+        <v>2.559355602912309e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.513257408399478e-05</v>
+        <v>2.468496975421872e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.407141945013355e-05</v>
+        <v>2.438500615785805e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.272899180915535e-05</v>
+        <v>2.247287297098e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.12820302967854e-05</v>
+        <v>2.106955009822936e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.084491597892442e-05</v>
+        <v>2.084614064512317e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.014747728260706e-05</v>
+        <v>2.020364415819848e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.901411410889433e-05</v>
+        <v>1.888876252086454e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.794007233007694e-05</v>
+        <v>1.821460716826101e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.780740236878584e-05</v>
+        <v>1.796203323284988e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,33 +1287,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.756520723423434e-05</v>
+        <v>1.781763247316479e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>h$_{r}^{0}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.612125797937616e-05</v>
+        <v>1.592321275491871e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>h$_{r}^{0}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.557329369770261e-05</v>
+        <v>1.587061557199378e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.457968841455943e-05</v>
+        <v>1.430645043280934e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.423974365102216e-05</v>
+        <v>1.412773941659141e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.157418325803025e-05</v>
+        <v>1.160943109083757e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.095667340393857e-05</v>
+        <v>1.083196295526194e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.074881652245642e-05</v>
+        <v>1.076439973882049e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.001770695809361e-05</v>
+        <v>1.010610233953683e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.978070366610122e-06</v>
+        <v>1.010375187974344e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9.890188349673145e-06</v>
+        <v>1.003608156287457e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9.410172670118807e-06</v>
+        <v>9.438023485862408e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8.985892244237583e-06</v>
+        <v>8.992748792099697e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.105469756525128e-06</v>
+        <v>8.240442292758342e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.377622270167794e-06</v>
+        <v>7.358699579311755e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.718743928668864e-06</v>
+        <v>6.476739642881446e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5.678069954089448e-06</v>
+        <v>5.608863325525656e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.487846236082857e-06</v>
+        <v>5.321192825279929e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.988946184125206e-06</v>
+        <v>2.914453487679398e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.610049477976085e-06</v>
+        <v>2.569084678567382e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.270659635287796e-06</v>
+        <v>2.324146693891489e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.225093037371503e-06</v>
+        <v>2.231275655919414e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.383139589376868e-06</v>
+        <v>1.36043389500341e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5.776207327542974e-07</v>
+        <v>6.00792746544922e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1599,202 +1599,202 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.215470987727362e-07</v>
+        <v>5.420181590977123e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.758955526306566e-08</v>
+        <v>7.92108974338191e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.247800010221931e-08</v>
+        <v>5.996321796168377e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.132016442356814e-08</v>
+        <v>2.414543521346413e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.928637917253112e-08</v>
+        <v>2.17093571920431e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.802849010116948e-08</v>
+        <v>2.131404109389863e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.550272001655042e-08</v>
+        <v>2.054948397194363e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.293889230691404e-08</v>
+        <v>1.752946508921828e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.222013241765122e-08</v>
+        <v>1.661238124695101e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.10737873971803e-08</v>
+        <v>1.498660449554358e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9.200906531809802e-09</v>
+        <v>7.912603503128482e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.173258915017722e-09</v>
+        <v>6.595651299678502e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.135102174938371e-09</v>
+        <v>6.251306869003652e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5.975757065697869e-09</v>
+        <v>3.479338284101597e-09</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.4434879380529e-09</v>
+        <v>2.965011437546799e-09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.528009353128534e-09</v>
+        <v>2.824916351764616e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.15328332053889e-09</v>
+        <v>1.976259553287184e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001757944116868135</v>
+        <v>0.001750130549641798</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0009856342730172767</v>
+        <v>0.0009846274453071519</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0007138407696031805</v>
+        <v>0.0007132819033761118</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004358903600317709</v>
+        <v>0.0004343386760998269</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004266352703467631</v>
+        <v>0.0004246014637988282</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000424886642147671</v>
+        <v>0.0004201494299917982</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003114034770098065</v>
+        <v>0.0003118570237438018</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002975415353387376</v>
+        <v>0.0003035080493472498</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002871981075118193</v>
+        <v>0.0002862594811628542</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002647502187052452</v>
+        <v>0.0002581516543079358</v>
       </c>
     </row>
     <row r="12">
@@ -585,33 +585,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001721274106253779</v>
+        <v>0.0001759560042575764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001578606220173288</v>
+        <v>0.0001604164751221265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001576674733620957</v>
+        <v>0.0001546800836887528</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001356275002653237</v>
+        <v>0.0001375286233212047</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001297714804136964</v>
+        <v>0.0001286380260166742</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001266076853698108</v>
+        <v>0.0001255336461939345</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001185584997731025</v>
+        <v>0.0001162080009106264</v>
       </c>
     </row>
     <row r="19">
@@ -676,85 +676,85 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000117135613862626</v>
+        <v>0.0001147639773823396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>typ_0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001097828017201294</v>
+        <v>0.0001105577958307923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>h$_{pr}^{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001091140949320803</v>
+        <v>0.000108790491467365</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>h$_{p}^{0}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001024434724165031</v>
+        <v>0.0001028680679069994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0001005858040760058</v>
+        <v>9.949260314523085e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>h$_{p}^{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.000100161233937453</v>
+        <v>9.922286855457385e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.946716989864862e-05</v>
+        <v>9.861205476116337e-05</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.546237761047241e-05</v>
+        <v>9.590242302953046e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.673841257000019e-05</v>
+        <v>8.731079635207966e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.372396469375091e-05</v>
+        <v>8.42529590016625e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.185453529342396e-05</v>
+        <v>8.258255719271565e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.739712308713019e-05</v>
+        <v>7.732577947473127e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.664762938093486e-05</v>
+        <v>7.680864729294616e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.541176727138666e-05</v>
+        <v>7.613564257039784e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.809092841406148e-05</v>
+        <v>6.807622889993819e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.542387700719632e-05</v>
+        <v>6.597161394624604e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.430736171352043e-05</v>
+        <v>6.404086148789688e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.264028991712328e-05</v>
+        <v>6.364928337697161e-05</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.195294756046203e-05</v>
+        <v>6.146369422016981e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.359909564179834e-05</v>
+        <v>5.407766626921774e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.284712897132471e-05</v>
+        <v>5.342958638665683e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.14076446650088e-05</v>
+        <v>5.151417243060589e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.664974934752032e-05</v>
+        <v>4.686833980635831e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.477948225443494e-05</v>
+        <v>4.460199601233939e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.828233512997084e-05</v>
+        <v>3.881498899773134e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.764075125469025e-05</v>
+        <v>3.756550782864879e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.588479669265956e-05</v>
+        <v>3.597129740228116e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.459072772426318e-05</v>
+        <v>3.413299240274127e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1040,33 +1040,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.294948427920535e-05</v>
+        <v>3.287857972125735e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.247883385238084e-05</v>
+        <v>3.258901023940577e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.238662701100388e-05</v>
+        <v>3.169248415369284e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.151462554410489e-05</v>
+        <v>3.142121264564686e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.038932616803068e-05</v>
+        <v>3.074880017948693e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.00677150424614e-05</v>
+        <v>3.011555107273129e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.003361729373537e-05</v>
+        <v>2.991116039952024e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.746757403198951e-05</v>
+        <v>2.692062856001079e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.65701330930647e-05</v>
+        <v>2.585664482959177e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.559355602912309e-05</v>
+        <v>2.53042796412504e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.468496975421872e-05</v>
+        <v>2.443353238766979e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.438500615785805e-05</v>
+        <v>2.417763751490489e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.247287297098e-05</v>
+        <v>2.260044660406281e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.106955009822936e-05</v>
+        <v>2.137217709425837e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.084614064512317e-05</v>
+        <v>2.10607327728464e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.020364415819848e-05</v>
+        <v>1.997739039343899e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,46 +1248,46 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.888876252086454e-05</v>
+        <v>1.874288101563429e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.821460716826101e-05</v>
+        <v>1.828192505932386e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.796203323284988e-05</v>
+        <v>1.754658968561231e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.781763247316479e-05</v>
+        <v>1.735712531551862e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.592321275491871e-05</v>
+        <v>1.579347350390622e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.587061557199378e-05</v>
+        <v>1.562829254186308e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.430645043280934e-05</v>
+        <v>1.465079096237254e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.412773941659141e-05</v>
+        <v>1.422888378829175e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.160943109083757e-05</v>
+        <v>1.146834853876853e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.083196295526194e-05</v>
+        <v>1.087359119852859e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1378,20 +1378,20 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.076439973882049e-05</v>
+        <v>1.08044737063564e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.010610233953683e-05</v>
+        <v>1.00406768882559e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.010375187974344e-05</v>
+        <v>9.977273993727336e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.003608156287457e-05</v>
+        <v>9.857977736798404e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9.438023485862408e-06</v>
+        <v>9.4347172948471e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8.992748792099697e-06</v>
+        <v>8.824820842308125e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.240442292758342e-06</v>
+        <v>8.254241557962531e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.358699579311755e-06</v>
+        <v>7.402657347032949e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.476739642881446e-06</v>
+        <v>6.476609795201717e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5.608863325525656e-06</v>
+        <v>5.653440425215473e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.321192825279929e-06</v>
+        <v>5.525560050651195e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.914453487679398e-06</v>
+        <v>2.933309356432915e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.569084678567382e-06</v>
+        <v>2.54789375209164e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.324146693891489e-06</v>
+        <v>2.359844099875356e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.231275655919414e-06</v>
+        <v>2.348289435587717e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.36043389500341e-06</v>
+        <v>1.387510388167063e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6.00792746544922e-07</v>
+        <v>5.683718546081586e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1599,46 +1599,46 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.420181590977123e-07</v>
+        <v>5.315252818727352e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.92108974338191e-08</v>
+        <v>7.105690486168858e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5.996321796168377e-08</v>
+        <v>3.179084676730028e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.414543521346413e-08</v>
+        <v>3.151891295082749e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1651,85 +1651,85 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.17093571920431e-08</v>
+        <v>2.93781430289728e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.131404109389863e-08</v>
+        <v>2.212451673699822e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.054948397194363e-08</v>
+        <v>1.458872846755756e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.752946508921828e-08</v>
+        <v>1.328955405927034e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.661238124695101e-08</v>
+        <v>1.195765122952185e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.498660449554358e-08</v>
+        <v>8.292245709624312e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.912603503128482e-09</v>
+        <v>8.189232610187569e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1742,59 +1742,59 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.595651299678502e-09</v>
+        <v>6.968103791420767e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.251306869003652e-09</v>
+        <v>6.959363277441956e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.479338284101597e-09</v>
+        <v>6.29978959740921e-09</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2.965011437546799e-09</v>
+        <v>6.286472104813377e-09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.824916351764616e-09</v>
+        <v>4.509072687091276e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.976259553287184e-09</v>
+        <v>1.118169166147726e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,306 +455,306 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001750130549641798</v>
+        <v>0.003330672203272259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0009846274453071519</v>
+        <v>0.0004459181057306093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0007132819033761118</v>
+        <v>0.0004303778771890183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004343386760998269</v>
+        <v>0.0003820316059875131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004246014637988282</v>
+        <v>0.0003641694756747144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0004201494299917982</v>
+        <v>0.0003335344620400187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003118570237438018</v>
+        <v>0.0003187301301873558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>h$_{rs}^{1}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003035080493472498</v>
+        <v>0.0002440955903401714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002862594811628542</v>
+        <v>0.0001959779571319262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002581516543079358</v>
+        <v>0.0001711854549442821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001759560042575764</v>
+        <v>0.0001631990944405215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001604164751221265</v>
+        <v>0.0001525938296044145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001546800836887528</v>
+        <v>0.0001397892270915024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001375286233212047</v>
+        <v>0.0001332503504374698</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>h$_{p}^{3}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001286380260166742</v>
+        <v>0.0001245939465702832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>type_0</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001255336461939345</v>
+        <v>0.0001163869912691854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>h$_{p}^{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001162080009106264</v>
+        <v>0.0001156219906447767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001147639773823396</v>
+        <v>0.0001130863553032557</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001105577958307923</v>
+        <v>0.0001110122190916293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.000108790491467365</v>
+        <v>9.382498065768071e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h$_{p}^{0}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001028680679069994</v>
+        <v>9.216191749834253e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.949260314523085e-05</v>
+        <v>8.850110819097944e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.922286855457385e-05</v>
+        <v>7.517411158485257e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.861205476116337e-05</v>
+        <v>7.35890848785082e-05</v>
       </c>
     </row>
     <row r="26">
@@ -763,68 +763,68 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.590242302953046e-05</v>
+        <v>7.336784109305963e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.731079635207966e-05</v>
+        <v>6.845488606757641e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.42529590016625e-05</v>
+        <v>6.650254525371193e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.258255719271565e-05</v>
+        <v>6.606626221942444e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>h$_{p}^{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.732577947473127e-05</v>
+        <v>6.466354824704332e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -832,571 +832,571 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.680864729294616e-05</v>
+        <v>6.336501577928215e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.613564257039784e-05</v>
+        <v>6.107384961961505e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>h$_{r}^{3}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.807622889993819e-05</v>
+        <v>5.875678460976802e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.597161394624604e-05</v>
+        <v>5.765224010845059e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{3}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.404086148789688e-05</v>
+        <v>5.679618326111832e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.364928337697161e-05</v>
+        <v>5.613395568217296e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.146369422016981e-05</v>
+        <v>5.323990648599763e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.407766626921774e-05</v>
+        <v>5.182973870664487e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.342958638665683e-05</v>
+        <v>4.872206745559865e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.151417243060589e-05</v>
+        <v>4.779659019979167e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.686833980635831e-05</v>
+        <v>4.450011544721523e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.460199601233939e-05</v>
+        <v>4.338188488218402e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.881498899773134e-05</v>
+        <v>4.334163142086877e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.756550782864879e-05</v>
+        <v>4.299236711913435e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.597129740228116e-05</v>
+        <v>3.883552223429775e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.413299240274127e-05</v>
+        <v>3.852444107061718e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.287857972125735e-05</v>
+        <v>3.598789585672812e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.258901023940577e-05</v>
+        <v>3.496949805350549e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.169248415369284e-05</v>
+        <v>3.479101302137337e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.142121264564686e-05</v>
+        <v>3.399581843095211e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.074880017948693e-05</v>
+        <v>3.325608401588066e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.011555107273129e-05</v>
+        <v>3.089578716630156e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.991116039952024e-05</v>
+        <v>3.035625870483441e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.692062856001079e-05</v>
+        <v>2.782098045098054e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.585664482959177e-05</v>
+        <v>2.567877303981174e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>h$_{r}^{1}$</t>
+          <t>type_3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.53042796412504e-05</v>
+        <v>2.490442173380802e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.443353238766979e-05</v>
+        <v>2.236721973099702e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.417763751490489e-05</v>
+        <v>2.053582643915947e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.260044660406281e-05</v>
+        <v>1.993399834932343e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.137217709425837e-05</v>
+        <v>1.873957229222339e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.10607327728464e-05</v>
+        <v>1.769302572017877e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>type_2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.997739039343899e-05</v>
+        <v>1.760803400276924e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.874288101563429e-05</v>
+        <v>1.601055141194771e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.828192505932386e-05</v>
+        <v>1.572062063202772e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.754658968561231e-05</v>
+        <v>1.570511731236145e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.735712531551862e-05</v>
+        <v>1.447406665899475e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>h$_{r}^{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.579347350390622e-05</v>
+        <v>1.419092328630159e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.562829254186308e-05</v>
+        <v>1.418107531212471e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>typ_3</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.465079096237254e-05</v>
+        <v>1.379490857264948e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.422888378829175e-05</v>
+        <v>1.343408468709563e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.146834853876853e-05</v>
+        <v>1.043781254472964e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FA$_{qs}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.087359119852859e-05</v>
+        <v>8.354810041776238e-06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.08044737063564e-05</v>
+        <v>7.763790169337479e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.00406768882559e-05</v>
+        <v>6.613538252684496e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1404,233 +1404,233 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.977273993727336e-06</v>
+        <v>6.59307028471e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9.857977736798404e-06</v>
+        <v>5.535709511445213e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9.4347172948471e-06</v>
+        <v>5.298599262502349e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8.824820842308125e-06</v>
+        <v>4.965252896461078e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.254241557962531e-06</v>
+        <v>4.548060851794821e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.402657347032949e-06</v>
+        <v>4.378478744157837e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.476609795201717e-06</v>
+        <v>3.650344486995419e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5.653440425215473e-06</v>
+        <v>3.492885742842645e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.525560050651195e-06</v>
+        <v>2.280085561070215e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.933309356432915e-06</v>
+        <v>1.795521028505204e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.54789375209164e-06</v>
+        <v>1.556051637628833e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.359844099875356e-06</v>
+        <v>1.107117478708255e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.348289435587717e-06</v>
+        <v>2.346982764032422e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.387510388167063e-06</v>
+        <v>2.418577526243617e-08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5.683718546081586e-07</v>
+        <v>4.444079872055446e-09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.315252818727352e-07</v>
+        <v>3.470581372737978e-09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.105690486168858e-08</v>
+        <v>3.030235601690789e-09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.179084676730028e-08</v>
+        <v>2.439071925675751e-09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1638,90 +1638,90 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.151891295082749e-08</v>
+        <v>2.284163337150111e-09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.93781430289728e-08</v>
+        <v>2.009357018886976e-09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.212451673699822e-08</v>
+        <v>2.002427841066958e-09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.458872846755756e-08</v>
+        <v>1.877235207333851e-09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.328955405927034e-08</v>
+        <v>1.772309491222526e-09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.195765122952185e-08</v>
+        <v>1.304056724543321e-09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8.292245709624312e-09</v>
+        <v>1.078610059812851e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1729,85 +1729,46 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.189232610187569e-09</v>
+        <v>7.19107488218664e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.968103791420767e-09</v>
+        <v>4.953988399120605e-10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.959363277441956e-09</v>
+        <v>3.31205116770922e-10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6.29978959740921e-09</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>$(\omega_{r})_{2}$</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>6.286472104813377e-09</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>$(\omega_{r})_{1}$</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>4.509072687091276e-09</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>$\omega_{q}$</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>1.118169166147726e-09</v>
+        <v>1.656017413452996e-10</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -455,202 +455,202 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003330672203272259</v>
+        <v>0.002512440777675423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0004459181057306093</v>
+        <v>0.001585672736665177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0004303778771890183</v>
+        <v>0.0004947680566441693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0003820316059875131</v>
+        <v>0.000461987098335648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0003641694756747144</v>
+        <v>0.0004594954924173746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{1}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003335344620400187</v>
+        <v>0.0004457890088975487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003187301301873558</v>
+        <v>0.0003729600247425708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002440955903401714</v>
+        <v>0.0003474819815341993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0001959779571319262</v>
+        <v>0.0003472202159253059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{2}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001711854549442821</v>
+        <v>0.0003221677790535746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001631990944405215</v>
+        <v>0.0002925948886896008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001525938296044145</v>
+        <v>0.0002654314038823417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001397892270915024</v>
+        <v>0.000241666773689505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001332503504374698</v>
+        <v>0.0001660744890863186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001245939465702832</v>
+        <v>0.0001383056005462337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>type_0</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001163869912691854</v>
+        <v>0.0001231908650794404</v>
       </c>
     </row>
     <row r="18">
@@ -663,254 +663,254 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001156219906447767</v>
+        <v>0.0001172064898643862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001130863553032557</v>
+        <v>0.0001162720602889589</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001110122190916293</v>
+        <v>0.0001018872311793657</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.382498065768071e-05</v>
+        <v>9.93559166974315e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.216191749834253e-05</v>
+        <v>9.770657615896605e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.850110819097944e-05</v>
+        <v>9.7686877002439e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.517411158485257e-05</v>
+        <v>9.659479090785439e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.35890848785082e-05</v>
+        <v>9.414006061480895e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.336784109305963e-05</v>
+        <v>9.345080405772327e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.845488606757641e-05</v>
+        <v>9.33408159065236e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.650254525371193e-05</v>
+        <v>8.285701099988316e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{2}$</t>
+          <t>type_0</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.606626221942444e-05</v>
+        <v>8.150203417434256e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.466354824704332e-05</v>
+        <v>7.933274322329215e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.336501577928215e-05</v>
+        <v>7.916614592999486e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.107384961961505e-05</v>
+        <v>6.541002818512589e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.875678460976802e-05</v>
+        <v>6.401621662923731e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.765224010845059e-05</v>
+        <v>6.378929113953422e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{3}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.679618326111832e-05</v>
+        <v>6.130431627248842e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.613395568217296e-05</v>
+        <v>6.02354440391548e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.323990648599763e-05</v>
+        <v>5.96747265627157e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,566 +923,566 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.182973870664487e-05</v>
+        <v>5.696091663291015e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.872206745559865e-05</v>
+        <v>5.481596435943409e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>type_2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.779659019979167e-05</v>
+        <v>5.295875547005227e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.450011544721523e-05</v>
+        <v>5.062342213916186e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.338188488218402e-05</v>
+        <v>5.055921438177589e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>type_3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.334163142086877e-05</v>
+        <v>4.830479115109291e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4.299236711913435e-05</v>
+        <v>4.750582517076969e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.883552223429775e-05</v>
+        <v>4.672162036191976e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.852444107061718e-05</v>
+        <v>4.604103476899782e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.598789585672812e-05</v>
+        <v>4.278479870016582e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.496949805350549e-05</v>
+        <v>4.243483083363596e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.479101302137337e-05</v>
+        <v>4.140718592205252e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.399581843095211e-05</v>
+        <v>3.710924054258213e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.325608401588066e-05</v>
+        <v>3.295235121082703e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.089578716630156e-05</v>
+        <v>3.251571355980995e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.035625870483441e-05</v>
+        <v>3.168868350449522e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.782098045098054e-05</v>
+        <v>3.057025960052657e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.567877303981174e-05</v>
+        <v>2.991200124159095e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>type_3</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.490442173380802e-05</v>
+        <v>2.890417984839468e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.236721973099702e-05</v>
+        <v>2.884072365397705e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.053582643915947e-05</v>
+        <v>2.678595546563721e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.993399834932343e-05</v>
+        <v>2.666642719155058e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.873957229222339e-05</v>
+        <v>2.622902549366535e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.769302572017877e-05</v>
+        <v>2.42610937281373e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>type_2</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.760803400276924e-05</v>
+        <v>2.070930214220355e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.601055141194771e-05</v>
+        <v>2.069057315827339e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.572062063202772e-05</v>
+        <v>1.990162656663972e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.570511731236145e-05</v>
+        <v>1.952448411077836e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.447406665899475e-05</v>
+        <v>1.834949996434692e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.419092328630159e-05</v>
+        <v>1.761977490670102e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.418107531212471e-05</v>
+        <v>1.562863950014165e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.379490857264948e-05</v>
+        <v>1.546353836526821e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.343408468709563e-05</v>
+        <v>1.531012630312768e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.043781254472964e-05</v>
+        <v>1.447550478037857e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8.354810041776238e-06</v>
+        <v>1.368050683050848e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.763790169337479e-06</v>
+        <v>1.227283692136725e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6.613538252684496e-06</v>
+        <v>1.196976234113875e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6.59307028471e-06</v>
+        <v>9.194384042844699e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5.535709511445213e-06</v>
+        <v>8.505700781198703e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5.298599262502349e-06</v>
+        <v>7.814074478305388e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.965252896461078e-06</v>
+        <v>7.571243922788534e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.548060851794821e-06</v>
+        <v>7.364983332775041e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.378478744157837e-06</v>
+        <v>5.595461364641157e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.650344486995419e-06</v>
+        <v>5.280819796883741e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,189 +1495,189 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.492885742842645e-06</v>
+        <v>4.615969887689549e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.280085561070215e-06</v>
+        <v>4.572300878336307e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.795521028505204e-06</v>
+        <v>4.084799182130845e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.556051637628833e-06</v>
+        <v>3.387111198604979e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.107117478708255e-06</v>
+        <v>3.368756195579657e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.346982764032422e-07</v>
+        <v>2.905433306750321e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.418577526243617e-08</v>
+        <v>2.741535144153178e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4.444079872055446e-09</v>
+        <v>2.209372613998546e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.470581372737978e-09</v>
+        <v>1.979348112644835e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.030235601690789e-09</v>
+        <v>1.655733125911476e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.439071925675751e-09</v>
+        <v>5.000636071633694e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.284163337150111e-09</v>
+        <v>4.224380142524742e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.009357018886976e-09</v>
+        <v>2.85778767330977e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.002427841066958e-09</v>
+        <v>2.16522185871082e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.877235207333851e-09</v>
+        <v>1.82847292616471e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.772309491222526e-09</v>
+        <v>1.122850087787836e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1703,72 +1703,72 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.304056724543321e-09</v>
+        <v>1.039960689540874e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.078610059812851e-09</v>
+        <v>8.444528578859518e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.19107488218664e-10</v>
+        <v>7.59035536989936e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.953988399120605e-10</v>
+        <v>4.861742824601793e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.31205116770922e-10</v>
+        <v>4.437933417477208e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.656017413452996e-10</v>
+        <v>2.61747422303594e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.002512440777675423</v>
+        <v>0.00251885861143194</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001585672736665177</v>
+        <v>0.001589514856865449</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0004947680566441693</v>
+        <v>0.0004958128213381861</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.000461987098335648</v>
+        <v>0.0004606031230109178</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004594954924173746</v>
+        <v>0.0004599159301036932</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0004457890088975487</v>
+        <v>0.0004402905619992127</v>
       </c>
     </row>
     <row r="8">
@@ -533,33 +533,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003729600247425708</v>
+        <v>0.0003695023415982953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003474819815341993</v>
+        <v>0.0003507350350169923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003472202159253059</v>
+        <v>0.0003465515291880913</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0003221677790535746</v>
+        <v>0.0003158557496052796</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002925948886896008</v>
+        <v>0.0002854065069971326</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002654314038823417</v>
+        <v>0.0002633924884706824</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000241666773689505</v>
+        <v>0.0002450684975358547</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001660744890863186</v>
+        <v>0.0001657487616176912</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001383056005462337</v>
+        <v>0.0001372035474603177</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001231908650794404</v>
+        <v>0.0001257939397919092</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001172064898643862</v>
+        <v>0.0001168103239308631</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001162720602889589</v>
+        <v>0.000114511546037373</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001018872311793657</v>
+        <v>0.0001057437360674874</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.93559166974315e-05</v>
+        <v>0.000100490705045045</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.770657615896605e-05</v>
+        <v>9.732365029823314e-05</v>
       </c>
     </row>
     <row r="23">
@@ -728,46 +728,46 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.7686877002439e-05</v>
+        <v>9.704512267078167e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.659479090785439e-05</v>
+        <v>9.565283581139257e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.414006061480895e-05</v>
+        <v>9.538472743242263e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.345080405772327e-05</v>
+        <v>9.537455866418268e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,33 +780,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.33408159065236e-05</v>
+        <v>8.969583424564923e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>type_0</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.285701099988316e-05</v>
+        <v>8.167506535324721e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>type_0</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.150203417434256e-05</v>
+        <v>8.105753693794668e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.933274322329215e-05</v>
+        <v>7.897983315358066e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.916614592999486e-05</v>
+        <v>7.886413641980995e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.541002818512589e-05</v>
+        <v>6.58118714152279e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.401621662923731e-05</v>
+        <v>6.430601206920176e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,72 +871,72 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.378929113953422e-05</v>
+        <v>6.427183390137861e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.130431627248842e-05</v>
+        <v>6.08770675349818e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.02354440391548e-05</v>
+        <v>5.734212437046565e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.96747265627157e-05</v>
+        <v>5.654982150563682e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.696091663291015e-05</v>
+        <v>5.607008682399571e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.481596435943409e-05</v>
+        <v>5.509515003640848e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.295875547005227e-05</v>
+        <v>5.267716249619125e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.062342213916186e-05</v>
+        <v>5.156309668670854e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.055921438177589e-05</v>
+        <v>5.044488406731033e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.830479115109291e-05</v>
+        <v>4.852964924115941e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,33 +1001,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4.750582517076969e-05</v>
+        <v>4.769573412697785e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.672162036191976e-05</v>
+        <v>4.701906598103767e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.604103476899782e-05</v>
+        <v>4.549863048493938e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.278479870016582e-05</v>
+        <v>4.294800809414763e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.243483083363596e-05</v>
+        <v>4.280454055400444e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.140718592205252e-05</v>
+        <v>4.034940450682245e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.710924054258213e-05</v>
+        <v>3.686082926544592e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1092,59 +1092,59 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.295235121082703e-05</v>
+        <v>3.321065450982063e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.251571355980995e-05</v>
+        <v>3.240910889744105e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.168868350449522e-05</v>
+        <v>3.170832436738017e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.057025960052657e-05</v>
+        <v>3.082676075309285e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.991200124159095e-05</v>
+        <v>2.985623103002895e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.890417984839468e-05</v>
+        <v>2.949753579171774e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,46 +1170,46 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.884072365397705e-05</v>
+        <v>2.851108909777619e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.678595546563721e-05</v>
+        <v>2.659829157757205e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.666642719155058e-05</v>
+        <v>2.654548416042313e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.622902549366535e-05</v>
+        <v>2.603161923351117e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,46 +1222,46 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.42610937281373e-05</v>
+        <v>2.42572823892681e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.070930214220355e-05</v>
+        <v>2.084932871852011e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.069057315827339e-05</v>
+        <v>2.032336059824532e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.990162656663972e-05</v>
+        <v>2.007449324700505e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.952448411077836e-05</v>
+        <v>1.888256016577377e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.834949996434692e-05</v>
+        <v>1.882737731857092e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.761977490670102e-05</v>
+        <v>1.729672510891181e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1313,33 +1313,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.562863950014165e-05</v>
+        <v>1.563981510390768e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.546353836526821e-05</v>
+        <v>1.55342879402321e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.531012630312768e-05</v>
+        <v>1.543432891697375e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.447550478037857e-05</v>
+        <v>1.446734971568919e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.368050683050848e-05</v>
+        <v>1.383353897681905e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.227283692136725e-05</v>
+        <v>1.236922424315693e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.196976234113875e-05</v>
+        <v>1.177016027270752e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.194384042844699e-06</v>
+        <v>9.453233038684323e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.505700781198703e-06</v>
+        <v>8.837189700135434e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.814074478305388e-06</v>
+        <v>7.901779935853004e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.571243922788534e-06</v>
+        <v>7.398604825193421e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.364983332775041e-06</v>
+        <v>7.217731296794699e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5.595461364641157e-06</v>
+        <v>5.449617962603447e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.280819796883741e-06</v>
+        <v>5.271179289827433e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.615969887689549e-06</v>
+        <v>4.685141095172145e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.572300878336307e-06</v>
+        <v>4.608585150642206e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.084799182130845e-06</v>
+        <v>4.027767037629824e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.387111198604979e-06</v>
+        <v>3.394123468384157e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.368756195579657e-06</v>
+        <v>3.191839366313202e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.905433306750321e-06</v>
+        <v>3.11016522193979e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.741535144153178e-06</v>
+        <v>2.738589303588591e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.209372613998546e-06</v>
+        <v>2.310746494203963e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1599,33 +1599,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.979348112644835e-06</v>
+        <v>1.967942964748721e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.655733125911476e-07</v>
+        <v>2.360379197396587e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5.000636071633694e-08</v>
+        <v>2.264392748862727e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1638,137 +1638,137 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.224380142524742e-08</v>
+        <v>2.221166636860165e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.85778767330977e-08</v>
+        <v>2.127593006271969e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.16522185871082e-08</v>
+        <v>1.891066643230072e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.82847292616471e-08</v>
+        <v>1.789212365922618e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.122850087787836e-08</v>
+        <v>1.537510843060651e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.039960689540874e-08</v>
+        <v>1.314790846253896e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8.444528578859518e-09</v>
+        <v>1.210670940526213e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.59035536989936e-09</v>
+        <v>8.872060532500205e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.861742824601793e-09</v>
+        <v>8.634345780532474e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.437933417477208e-09</v>
+        <v>6.569235958214897e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.61747422303594e-09</v>
+        <v>3.270562620510968e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VDZP_SHAP.xlsx
+++ b/ozone/ozone_VDZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.00251885861143194</v>
+        <v>0.002524482334991221</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001589514856865449</v>
+        <v>0.001594092377191565</v>
       </c>
     </row>
     <row r="4">
@@ -481,33 +481,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0004958128213381861</v>
+        <v>0.0004987176721601981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{1}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004606031230109178</v>
+        <v>0.0004581477911883263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004599159301036932</v>
+        <v>0.0004564781892604598</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0004402905619992127</v>
+        <v>0.0004445783566993928</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003695023415982953</v>
+        <v>0.0003707242281004469</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003507350350169923</v>
+        <v>0.0003487228798525836</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003465515291880913</v>
+        <v>0.0003480148833287347</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0003158557496052796</v>
+        <v>0.0003171228199293884</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002854065069971326</v>
+        <v>0.0002889343916116778</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002633924884706824</v>
+        <v>0.00026326840855884</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002450684975358547</v>
+        <v>0.0002469245383221303</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001657487616176912</v>
+        <v>0.0001672134496849293</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001372035474603177</v>
+        <v>0.0001404177533584661</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001257939397919092</v>
+        <v>0.0001246963710119605</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001168103239308631</v>
+        <v>0.000119245046481642</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000114511546037373</v>
+        <v>0.0001163185617855217</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001057437360674874</v>
+        <v>0.0001070458581849243</v>
       </c>
     </row>
     <row r="21">
@@ -702,46 +702,46 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.000100490705045045</v>
+        <v>9.886282072933297e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.732365029823314e-05</v>
+        <v>9.842399451671376e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.704512267078167e-05</v>
+        <v>9.67258095917455e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.565283581139257e-05</v>
+        <v>9.62069425163774e-05</v>
       </c>
     </row>
     <row r="25">
@@ -754,20 +754,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.538472743242263e-05</v>
+        <v>9.525851353721858e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.537455866418268e-05</v>
+        <v>9.420714976503585e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,33 +780,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.969583424564923e-05</v>
+        <v>9.046562339104199e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>type_0</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.167506535324721e-05</v>
+        <v>8.304768101438729e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$type_0$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.105753693794668e-05</v>
+        <v>8.293593711775066e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.897983315358066e-05</v>
+        <v>8.274825970592094e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.886413641980995e-05</v>
+        <v>7.885154294019104e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.58118714152279e-05</v>
+        <v>6.632204843282781e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.430601206920176e-05</v>
+        <v>6.553702762792304e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.427183390137861e-05</v>
+        <v>6.328818239304006e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.08770675349818e-05</v>
+        <v>6.089928000198596e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,46 +897,46 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.734212437046565e-05</v>
+        <v>5.88208506722921e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.654982150563682e-05</v>
+        <v>5.791108512674131e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.607008682399571e-05</v>
+        <v>5.641066537176111e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.509515003640848e-05</v>
+        <v>5.424410105186671e-05</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>type_2</t>
+          <t>$type_2$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.267716249619125e-05</v>
+        <v>5.4208784771079e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.156309668670854e-05</v>
+        <v>5.112280737937822e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.044488406731033e-05</v>
+        <v>5.100782529879084e-05</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>type_3</t>
+          <t>$type_3$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.852964924115941e-05</v>
+        <v>4.778147983014806e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4.769573412697785e-05</v>
+        <v>4.731300813220883e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.701906598103767e-05</v>
+        <v>4.662447517513529e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1027,33 +1027,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.549863048493938e-05</v>
+        <v>4.651409513310113e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.294800809414763e-05</v>
+        <v>4.269882213635193e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.280454055400444e-05</v>
+        <v>4.246806301940344e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.034940450682245e-05</v>
+        <v>4.189880663875867e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.686082926544592e-05</v>
+        <v>3.73563923062914e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.321065450982063e-05</v>
+        <v>3.260598938816625e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.240910889744105e-05</v>
+        <v>3.250891507393523e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1118,33 +1118,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.170832436738017e-05</v>
+        <v>3.231981423617225e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.082676075309285e-05</v>
+        <v>3.016664894345145e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.985623103002895e-05</v>
+        <v>2.937701646716469e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.949753579171774e-05</v>
+        <v>2.890444848416816e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.851108909777619e-05</v>
+        <v>2.862412817726379e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.659829157757205e-05</v>
+        <v>2.639546285779494e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.654548416042313e-05</v>
+        <v>2.637893768545156e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.603161923351117e-05</v>
+        <v>2.582396973602522e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,46 +1222,46 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.42572823892681e-05</v>
+        <v>2.473208836057117e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.084932871852011e-05</v>
+        <v>2.029998565304302e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.032336059824532e-05</v>
+        <v>2.015700551600621e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.007449324700505e-05</v>
+        <v>1.971196160004347e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.888256016577377e-05</v>
+        <v>1.953580890522192e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.882737731857092e-05</v>
+        <v>1.907286518412643e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,46 +1300,46 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.729672510891181e-05</v>
+        <v>1.745849522933734e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.563981510390768e-05</v>
+        <v>1.589669228735271e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.55342879402321e-05</v>
+        <v>1.556420225218522e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.543432891697375e-05</v>
+        <v>1.524171978751925e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.446734971568919e-05</v>
+        <v>1.443908225623082e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.383353897681905e-05</v>
+        <v>1.384031794771459e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.236922424315693e-05</v>
+        <v>1.222079122753748e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.177016027270752e-05</v>
+        <v>1.193168140353641e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.453233038684323e-06</v>
+        <v>9.450552311513586e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1417,46 +1417,46 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.837189700135434e-06</v>
+        <v>8.552884599374117e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$type_1$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.901779935853004e-06</v>
+        <v>7.440743821003758e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.398604825193421e-06</v>
+        <v>7.435275455520194e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.217731296794699e-06</v>
+        <v>7.423367536872019e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5.449617962603447e-06</v>
+        <v>5.602243847797356e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.271179289827433e-06</v>
+        <v>5.124012437352635e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.685141095172145e-06</v>
+        <v>4.709419703501569e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.608585150642206e-06</v>
+        <v>4.44951528218974e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,33 +1521,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.027767037629824e-06</v>
+        <v>4.230491981097769e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.394123468384157e-06</v>
+        <v>3.407799584496767e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.191839366313202e-06</v>
+        <v>3.405463451941828e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.11016522193979e-06</v>
+        <v>2.778226807039793e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,202 +1573,202 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.738589303588591e-06</v>
+        <v>2.641131839572978e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.310746494203963e-06</v>
+        <v>2.061307806296717e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.967942964748721e-06</v>
+        <v>1.987167661354757e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.360379197396587e-08</v>
+        <v>3.484623572096444e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.264392748862727e-08</v>
+        <v>1.929403916172335e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.221166636860165e-08</v>
+        <v>1.598379171558597e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.127593006271969e-08</v>
+        <v>1.495403672429885e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.891066643230072e-08</v>
+        <v>1.478864901240012e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.789212365922618e-08</v>
+        <v>1.476579575531142e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.537510843060651e-08</v>
+        <v>1.390596254898111e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.314790846253896e-08</v>
+        <v>1.010805934874123e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.210670940526213e-08</v>
+        <v>7.93736529051551e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.872060532500205e-09</v>
+        <v>6.713770920461205e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.634345780532474e-09</v>
+        <v>5.757098939490971e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.569235958214897e-09</v>
+        <v>4.405161772541149e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.270562620510968e-09</v>
+        <v>3.188542130959932e-09</v>
       </c>
     </row>
   </sheetData>
